--- a/src/数据.xlsx
+++ b/src/数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Exercise 2</t>
   </si>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>8.785938（平均每个进程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mlp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mlp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" style="1" customWidth="1"/>
@@ -616,6 +624,105 @@
       </c>
       <c r="J4">
         <v>0.98301099999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>77.382766000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32.686497000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUM(C5:D5)</f>
+        <v>110.06926300000001</v>
+      </c>
+      <c r="F5">
+        <v>0.96464300000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.94156899999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.91049199999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.92576999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.96695699999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>223.45522600000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>324.942498</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(C6:D6)</f>
+        <v>548.39772400000004</v>
+      </c>
+      <c r="F6">
+        <v>0.96239300000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.92276599999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.92185799999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.92231200000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.96959099999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>250.83858699999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>321.99130200000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(C7:D7)</f>
+        <v>572.82988899999998</v>
+      </c>
+      <c r="F7">
+        <v>0.96379599999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.92899699999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.92087399999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.92491800000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.97054200000000002</v>
       </c>
     </row>
   </sheetData>
